--- a/最終面接/対策一覧.xlsx
+++ b/最終面接/対策一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\最終面接\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CABFC94-5C41-41D3-AF3F-51C925C6A3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{170C1E22-BD45-4D18-A0A7-DC5C5F202848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>№</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>対策</t>
     <rPh sb="0" eb="2">
@@ -45,7 +49,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>№</t>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己PR</t>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -56,6 +73,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>企業のビジョン、ミッション、文化について十分に理解しましょう。
+企業のウェブサイトや社内の価値観を確認し、それに基づいて自分がなぜその企業で働きたいかを具体的に説明できるようにします。
+・企業のビジョン：障害の有無に関わらず、全ての人が対等（parallel）で、社会的意義を感じながら持てる技術（technologies）を発揮して働ける社会の実現
+・企業のミッション：障害の有無によらず、持てる技術を発揮できる社会を実現すること</t>
+  </si>
+  <si>
+    <t>日揮パラレルテクノロジーズで働きたい理由は、新しい職場環境でのチャレンジと、前職で感じた課題に対する克服を求めているからです。
+1. **コミュニケーションの向上:**
+   前職ではコミュニケーションが苦手だったとのことですが、日揮パラレルテクノロジーズでは新たなチームやプロジェクトに参加することで、コミュニケーションスキルの向上が期待できます。
+　多様な人々と連携し、協力してプロジェクトを進めることで、以前の課題を克服するチャンスが広がります。
+2. **スキルアップとやりがいのある仕事:**
+   単調な作業に飽き足りなかった経験から、日揮パラレルテクノロジーズでの仕事は新たなスキルや知識の獲得が期待されます。
+　刺激的でやりがいのあるプロジェクトに携わり、自己成長を実感できる環境が提供されるでしょう。これにより、将来のキャリアプランを見直し、自身のポテンシャルを最大限に引き出すことが可能です。
+3. **障害に対する理解とサポート:**
+   日揮パラレルテクノロジーズは、障害に対する理解とサポートがある職場環境を提供しているかもしれません。
+　障害があるからこそ、個々の強みや特異な視点を生かせる仕事の機会があります。企業の理念や働き方に共感し、自身の強みを生かせる場所で働くことが、より充実感を得られるでしょう。
+これらの要因から、日揮パラレルテクノロジーズでの働きが、以前の課題を克服し、より充実したキャリアを築く一歩となる可能性があります。</t>
+  </si>
+  <si>
     <t>プロジェクトや業績の強調</t>
     <rPh sb="10" eb="12">
       <t>キョウチョウ</t>
@@ -63,7 +99,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>過去のプロジェクトや業績を強調し、自身の仕事がどのようにチームやプロジェクトに貢献したかを示すことが重要です。
+数値や具体的な成果を示すことで、自分の価値を伝えやすくなります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>リーダーシップの経験</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チームリーダーシップの経験や、他のメンバーと協力してプロジェクトを成功に導いた経験について具体的に語りましょう。
+リーダーシップの資質や協力能力が評価されることがあります。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -74,6 +120,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>面接官に対する質問を用意しましょう。
+これは企業やポジションについての深い理解を示すだけでなく、自分がこの仕事や企業に本当に興味を持っていることを示す手段となります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>挑戦に対する考え</t>
     <rPh sb="0" eb="2">
       <t>チョウセン</t>
@@ -87,46 +138,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コミュニケーションスキル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>企業のビジョン、ミッション、文化について十分に理解しましょう。
-企業のウェブサイトや社内の価値観を確認し、それに基づいて自分がなぜその企業で働きたいかを具体的に説明できるようにします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>過去のプロジェクトや業績を強調し、自身の仕事がどのようにチームやプロジェクトに貢献したかを示すことが重要です。
-数値や具体的な成果を示すことで、自分の価値を伝えやすくなります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チームリーダーシップの経験や、他のメンバーと協力してプロジェクトを成功に導いた経験について具体的に語りましょう。
-リーダーシップの資質や協力能力が評価されることがあります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>面接官に対する質問を用意しましょう。
-これは企業やポジションについての深い理解を示すだけでなく、自分がこの仕事や企業に本当に興味を持っていることを示す手段となります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>過去の挑戦や失敗についてもオープンに話すことが大切です。
 それに対する学びや成長、またそれを乗り越えるための取り組みなどを伝えることで、柔軟性や向上心をアピールできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コミュニケーションスキル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -139,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -558,113 +575,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28EFA06-CF6E-4C09-8D9B-C1D5BF0B7C2B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.4375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.8125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.4375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3" style="1"/>
+    <col min="1" max="1" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="194.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" ht="337.5">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/最終面接/対策一覧.xlsx
+++ b/最終面接/対策一覧.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\最終面接\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170C1E22-BD45-4D18-A0A7-DC5C5F202848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A6263-23C9-4CF0-8448-B0DAF4776012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
+    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BE398133-2CEF-429F-910A-E06ED3BC5A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="最終面接質問に対する回答" sheetId="2" r:id="rId2"/>
+    <sheet name="逆質問" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>№</t>
     <phoneticPr fontId="2"/>
@@ -151,12 +153,103 @@
 自分の意見を明確に伝え、他のメンバーと協力する姿勢をアピールしましょう。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>テスターとしての経験談</t>
+    <rPh sb="8" eb="11">
+      <t>ケイケンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスターとしてプロジェクトに参画していた際のエピソードを共有します。</t>
+  </si>
+  <si>
+    <t>テストの進行は通常、テストデータの作成、テストの開始、そしてテスト結果の確認の三つの工程から成り立っています。</t>
+  </si>
+  <si>
+    <t>特にテストデータの作成は非常に重要で、その効率向上を図るためにVBA（Visual Basic for Applications）を利用することを考えました。</t>
+  </si>
+  <si>
+    <t>しかし、VBAを使用してどのように効率化を図るかについては明確なアイデアが浮かばず、悩んでいました。</t>
+  </si>
+  <si>
+    <t>そんな中、先輩たちからのアイデアがあり、そのおかげで試行錯誤を重ねつつ、実現することができました。</t>
+  </si>
+  <si>
+    <t>結果的に、プロジェクトは円滑に進行し、無事に完了させることができました。先輩方の協力と知恵に感謝しています。</t>
+  </si>
+  <si>
+    <t>今までの経験で培った強み</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前職で培った大きな強みは、何事もコツコツと成し遂げる粘り強さです。</t>
+  </si>
+  <si>
+    <t>また、新しい技術に対するキャッチアップ能力も備えています。</t>
+  </si>
+  <si>
+    <t>短期間ではありますが、通所している事業所ではWeb開発の一環としてPHP/Laravelを学び、その成果をポートフォリオやインターンシップにおいて具現化してきました。</t>
+  </si>
+  <si>
+    <t>これらの経験とスキルを通じて、私は様々な技術を用いるWeb開発事業において、貴社に貢献できると自負しています。</t>
+  </si>
+  <si>
+    <t>新たなチャレンジにも積極的に取り組み、成果を上げるために全力を尽くします。</t>
+  </si>
+  <si>
+    <t>長期的に考えたときに</t>
+    <rPh sb="0" eb="3">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>私は「プログラミング言語でモノづくりがしたい」という志望動機から出発して就職活動を進めてきました。</t>
+  </si>
+  <si>
+    <t>しかしながら、前職では主にテスターとして業務に携わり、将来的にシステムエンジニアとしての成長が難しいかもしれないと感じました。</t>
+  </si>
+  <si>
+    <t>同時に、自身の障害特性も考慮し、会社側からの理解が得られない中での働き続けることも難しいと感じています。</t>
+  </si>
+  <si>
+    <t>御社では、障害がある方々に理解を示し、かつWeb開発事業に関わることができる環境が整っています。</t>
+  </si>
+  <si>
+    <t>私は、御社ならば長期的な視点で考え、システムエンジニアとしての成長を実感しながら働くことができるのではないかと考え、志望いたしました。</t>
+  </si>
+  <si>
+    <t>御社での経験を通じて、自身のスキルを向上させ、成長していくことを心から楽しみにしております。</t>
+  </si>
+  <si>
+    <t>逆質問１</t>
+    <rPh sb="0" eb="3">
+      <t>ギャクシツモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +277,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -241,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -279,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,12 +682,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28EFA06-CF6E-4C09-8D9B-C1D5BF0B7C2B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
@@ -592,7 +697,7 @@
     <col min="6" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="337.5">
+    <row r="2" spans="1:5" ht="264.39999999999998" x14ac:dyDescent="0.7">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -625,7 +730,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
@@ -639,7 +744,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -653,7 +758,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -667,7 +772,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="45">
+    <row r="6" spans="1:5" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -681,7 +786,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -694,6 +799,239 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF4F60-24D7-42BE-9601-39993812A6E5}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612CAC91-D71A-41F3-B532-4603299E85F5}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
